--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3972.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3972.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.241500475699886</v>
+        <v>1.668673753738403</v>
       </c>
       <c r="B1">
-        <v>2.581188903931143</v>
+        <v>1.929265975952148</v>
       </c>
       <c r="C1">
-        <v>5.607337364106185</v>
+        <v>1.751630187034607</v>
       </c>
       <c r="D1">
-        <v>3.095581127106686</v>
+        <v>2.503470659255981</v>
       </c>
       <c r="E1">
-        <v>1.360782330112403</v>
+        <v>3.077194213867188</v>
       </c>
     </row>
   </sheetData>
